--- a/biology/Microbiologie/Thermodesulfobacteriota/Thermodesulfobacteriota.xlsx
+++ b/biology/Microbiologie/Thermodesulfobacteriota/Thermodesulfobacteriota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thermodesulfobacteriota représentent un phylum de bactéries thermophiles sulfato-réductrices contenant au moins la classe Thermodesulfobacteria.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2001, Garrity et Holt décrivent le phylum des Thermodesulfobacteria dans le Bergey's Manual of Systematic Bacteriology mais celui-ci n'est pas publié de manière valide[2]. Ce taxon a été republié en 2021 avec une modification de son nom en Thermodesulfobacteriota pour se conformer aux règles de Nomenclature  de l'ICSP en maintenant l'autorité d'invention à Garrity et Holt mais avec la date de validation de 2021[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001, Garrity et Holt décrivent le phylum des Thermodesulfobacteria dans le Bergey's Manual of Systematic Bacteriology mais celui-ci n'est pas publié de manière valide. Ce taxon a été republié en 2021 avec une modification de son nom en Thermodesulfobacteriota pour se conformer aux règles de Nomenclature  de l'ICSP en maintenant l'autorité d'invention à Garrity et Holt mais avec la date de validation de 2021.
 </t>
         </is>
       </c>
@@ -570,8 +586,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du phylum Thermodesulfobacteriota est la suivante : Ther.mo.de.sul.fo.bac.te.ri.o’ta N.L. neut. n. Thermodesulfobacterium, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour définir un phylum; N.L. neut. pl. n. Thermodesulfobacteriota, le phylum des Thermodesulfobacterium[1],[3].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du phylum Thermodesulfobacteriota est la suivante : Ther.mo.de.sul.fo.bac.te.ri.o’ta N.L. neut. n. Thermodesulfobacterium, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour définir un phylum; N.L. neut. pl. n. Thermodesulfobacteriota, le phylum des Thermodesulfobacterium,.
 </t>
         </is>
       </c>
@@ -600,10 +621,12 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thermodesulfobacteria Hatchikian et al. 2002
-Des bactéries non classées dont le genre Thermosulfuriphilus Slobodkina et al. 2017[4].</t>
+Des bactéries non classées dont le genre Thermosulfuriphilus Slobodkina et al. 2017.</t>
         </is>
       </c>
     </row>
